--- a/bom/covg_daq_v2_bom_byvalue.xlsx
+++ b/bom/covg_daq_v2_bom_byvalue.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/koer2434/Google Drive/UST/research/covg/pcb_design/kicad/covg_daq_v2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{B940CAAD-F6A6-144B-A7E2-47FD76A5E2DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3349225B-40AF-4A40-843C-8AD2B677BE29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600"/>
+    <workbookView xWindow="13140" yWindow="480" windowWidth="25260" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="covg_daq_v2" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="303">
   <si>
     <t>Source:</t>
   </si>
@@ -219,9 +219,6 @@
     <t>CC0603CRNPO9BN2R0</t>
   </si>
   <si>
-    <t xml:space="preserve">D1, D2, </t>
-  </si>
-  <si>
     <t>D_Schottky</t>
   </si>
   <si>
@@ -246,9 +243,6 @@
     <t>Ferrite bead</t>
   </si>
   <si>
-    <t xml:space="preserve">IC1, </t>
-  </si>
-  <si>
     <t>ADS8686SIPZAR</t>
   </si>
   <si>
@@ -285,9 +279,6 @@
     <t>10029449-111RLF</t>
   </si>
   <si>
-    <t xml:space="preserve">J9, </t>
-  </si>
-  <si>
     <t>Conn_02x06_Odd_Even</t>
   </si>
   <si>
@@ -297,9 +288,6 @@
     <t>Generic connector, double row, 02x06, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
   </si>
   <si>
-    <t xml:space="preserve">J10, </t>
-  </si>
-  <si>
     <t>Conn_02x07_Odd_Even</t>
   </si>
   <si>
@@ -309,9 +297,6 @@
     <t>Generic connector, double row, 02x07, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
   </si>
   <si>
-    <t xml:space="preserve">J11, J15, </t>
-  </si>
-  <si>
     <t>Conn_02x12_Odd_Even</t>
   </si>
   <si>
@@ -324,9 +309,6 @@
     <t>DF11-24DP-2DS(24)</t>
   </si>
   <si>
-    <t xml:space="preserve">J12, </t>
-  </si>
-  <si>
     <t>Barrel_Jack_Switch</t>
   </si>
   <si>
@@ -339,9 +321,6 @@
     <t>PJ-002BH</t>
   </si>
   <si>
-    <t xml:space="preserve">J13, </t>
-  </si>
-  <si>
     <t>Conn_02x05_Odd_Even</t>
   </si>
   <si>
@@ -351,9 +330,6 @@
     <t>Generic connector, double row, 02x05, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
   </si>
   <si>
-    <t xml:space="preserve">J14, </t>
-  </si>
-  <si>
     <t>Screw_Terminal_01x12</t>
   </si>
   <si>
@@ -366,9 +342,6 @@
     <t>OSTVN12A150</t>
   </si>
   <si>
-    <t xml:space="preserve">J16, J17, </t>
-  </si>
-  <si>
     <t>Conn_Coaxial</t>
   </si>
   <si>
@@ -378,9 +351,6 @@
     <t>coaxial connector (BNC, SMA, SMB, SMC, Cinch/RCA, ...)</t>
   </si>
   <si>
-    <t xml:space="preserve">J18, </t>
-  </si>
-  <si>
     <t>QWIIC_CONNECTOR-1MM</t>
   </si>
   <si>
@@ -396,9 +366,6 @@
     <t>PRT-14417</t>
   </si>
   <si>
-    <t xml:space="preserve">L1, </t>
-  </si>
-  <si>
     <t>L</t>
   </si>
   <si>
@@ -411,9 +378,6 @@
     <t>SRR4018-4R7Y</t>
   </si>
   <si>
-    <t xml:space="preserve">L2, </t>
-  </si>
-  <si>
     <t>10uH</t>
   </si>
   <si>
@@ -423,9 +387,6 @@
     <t>NRS5020T100MMGJ</t>
   </si>
   <si>
-    <t xml:space="preserve">L3, </t>
-  </si>
-  <si>
     <t>15uH</t>
   </si>
   <si>
@@ -522,9 +483,6 @@
     <t>470k</t>
   </si>
   <si>
-    <t xml:space="preserve">R35, </t>
-  </si>
-  <si>
     <t>232k</t>
   </si>
   <si>
@@ -549,9 +507,6 @@
     <t>RC0603FR-07100KL</t>
   </si>
   <si>
-    <t xml:space="preserve">R42, </t>
-  </si>
-  <si>
     <t>249k</t>
   </si>
   <si>
@@ -705,9 +660,6 @@
     <t>Package_SO:TSSOP-16_4.4x5mm_P0.65mm</t>
   </si>
   <si>
-    <t xml:space="preserve">U12, U65, </t>
-  </si>
-  <si>
     <t>OPA991S</t>
   </si>
   <si>
@@ -720,9 +672,6 @@
     <t>OPA991SIDBVR</t>
   </si>
   <si>
-    <t xml:space="preserve">U13, </t>
-  </si>
-  <si>
     <t>LT3471</t>
   </si>
   <si>
@@ -735,9 +684,6 @@
     <t>LT3471EDD#PBF</t>
   </si>
   <si>
-    <t xml:space="preserve">U14, </t>
-  </si>
-  <si>
     <t>LP38692MP-5.0</t>
   </si>
   <si>
@@ -753,9 +699,6 @@
     <t>LP38692MPX-5.0/NOPB</t>
   </si>
   <si>
-    <t xml:space="preserve">U15, </t>
-  </si>
-  <si>
     <t>LP38693MP-3.3</t>
   </si>
   <si>
@@ -765,9 +708,6 @@
     <t>LP38693MP-3.3/NOPB</t>
   </si>
   <si>
-    <t xml:space="preserve">U16, </t>
-  </si>
-  <si>
     <t>LM2937xMP</t>
   </si>
   <si>
@@ -780,18 +720,12 @@
     <t>LM2937IMPX-15/NOPB</t>
   </si>
   <si>
-    <t xml:space="preserve">U17, </t>
-  </si>
-  <si>
     <t>MAX6070BAUT21+T</t>
   </si>
   <si>
     <t>Package_TO_SOT_SMD:SOT-23-6_Handsoldering</t>
   </si>
   <si>
-    <t xml:space="preserve">U18, </t>
-  </si>
-  <si>
     <t>LP38693MP-1.8</t>
   </si>
   <si>
@@ -801,9 +735,6 @@
     <t>LP38693MP-1.8/NOPB</t>
   </si>
   <si>
-    <t xml:space="preserve">U19, </t>
-  </si>
-  <si>
     <t>MC79M15_TO252</t>
   </si>
   <si>
@@ -816,9 +747,6 @@
     <t>MC79M15BDTRKG</t>
   </si>
   <si>
-    <t xml:space="preserve">U20, </t>
-  </si>
-  <si>
     <t>LP38693MP-2.5</t>
   </si>
   <si>
@@ -828,9 +756,6 @@
     <t>LP38693MP-2.5/NOPB</t>
   </si>
   <si>
-    <t xml:space="preserve">U21, </t>
-  </si>
-  <si>
     <t>24AA025UID</t>
   </si>
   <si>
@@ -840,9 +765,6 @@
     <t>24AA025UIDT-I/SN</t>
   </si>
   <si>
-    <t xml:space="preserve">U22, </t>
-  </si>
-  <si>
     <t>PCA9306</t>
   </si>
   <si>
@@ -855,9 +777,6 @@
     <t>PCA9306DTR2G</t>
   </si>
   <si>
-    <t xml:space="preserve">U23, </t>
-  </si>
-  <si>
     <t>NLSX3018DTR2G</t>
   </si>
   <si>
@@ -937,12 +856,96 @@
   </si>
   <si>
     <t>MC1, MC2</t>
+  </si>
+  <si>
+    <t>RC0603FR-07470KL</t>
+  </si>
+  <si>
+    <t>D1, D2</t>
+  </si>
+  <si>
+    <t>IC1</t>
+  </si>
+  <si>
+    <t>U13</t>
+  </si>
+  <si>
+    <t>U12, U65</t>
+  </si>
+  <si>
+    <t>U14</t>
+  </si>
+  <si>
+    <t>U15</t>
+  </si>
+  <si>
+    <t>U16</t>
+  </si>
+  <si>
+    <t>U17</t>
+  </si>
+  <si>
+    <t>U18</t>
+  </si>
+  <si>
+    <t>U19</t>
+  </si>
+  <si>
+    <t>U20</t>
+  </si>
+  <si>
+    <t>U21</t>
+  </si>
+  <si>
+    <t>U22</t>
+  </si>
+  <si>
+    <t>U23</t>
+  </si>
+  <si>
+    <t>R35</t>
+  </si>
+  <si>
+    <t>R42</t>
+  </si>
+  <si>
+    <t>L3</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>J9</t>
+  </si>
+  <si>
+    <t>J10</t>
+  </si>
+  <si>
+    <t>J12</t>
+  </si>
+  <si>
+    <t>J18</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>J13</t>
+  </si>
+  <si>
+    <t>J14</t>
+  </si>
+  <si>
+    <t>J16, J17</t>
+  </si>
+  <si>
+    <t>J11, J15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1778,11 +1781,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2208,45 +2211,45 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>276</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
       <c r="C19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" t="s">
         <v>63</v>
       </c>
-      <c r="D19" t="s">
-        <v>63</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>64</v>
       </c>
-      <c r="F19" t="s">
+      <c r="H19" t="s">
         <v>65</v>
-      </c>
-      <c r="H19" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B20">
         <v>7</v>
       </c>
       <c r="C20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" t="s">
         <v>68</v>
       </c>
-      <c r="D20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>69</v>
-      </c>
-      <c r="F20" t="s">
-        <v>70</v>
       </c>
       <c r="H20">
         <v>742792117</v>
@@ -2254,88 +2257,88 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>71</v>
+        <v>277</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" t="s">
         <v>72</v>
       </c>
-      <c r="D21" t="s">
-        <v>72</v>
-      </c>
-      <c r="E21" t="s">
-        <v>73</v>
-      </c>
-      <c r="F21" t="s">
-        <v>74</v>
-      </c>
       <c r="H21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B22">
         <v>6</v>
       </c>
       <c r="C22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" t="s">
+        <v>75</v>
+      </c>
+      <c r="H22" t="s">
         <v>76</v>
-      </c>
-      <c r="D22" t="s">
-        <v>76</v>
-      </c>
-      <c r="E22" t="s">
-        <v>77</v>
-      </c>
-      <c r="H22" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B23">
         <v>4</v>
       </c>
       <c r="C23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23" t="s">
         <v>80</v>
       </c>
-      <c r="D23" t="s">
-        <v>80</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="H23" t="s">
         <v>81</v>
-      </c>
-      <c r="F23" t="s">
-        <v>82</v>
-      </c>
-      <c r="H23" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>84</v>
+        <v>294</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D24" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E24" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F24" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H24">
         <v>878331220</v>
@@ -2343,22 +2346,22 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>88</v>
+        <v>295</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D25" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E25" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F25" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H25">
         <v>878331419</v>
@@ -2366,68 +2369,68 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>92</v>
+        <v>302</v>
       </c>
       <c r="B26">
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D26" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E26" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F26" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H26" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>97</v>
+        <v>296</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D27" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E27" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F27" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H27" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>102</v>
+        <v>299</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D28" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E28" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F28" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="H28">
         <v>877591064</v>
@@ -2435,45 +2438,45 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>106</v>
+        <v>300</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D29" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E29" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F29" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="H29" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>111</v>
+        <v>301</v>
       </c>
       <c r="B30">
         <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D30" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E30" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="F30" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="H30">
         <v>733910083</v>
@@ -2481,30 +2484,30 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>115</v>
+        <v>297</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D31" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E31" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="F31" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="H31" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>121</v>
+        <v>298</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -2513,102 +2516,102 @@
         <v>30</v>
       </c>
       <c r="D32" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="E32" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="F32" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="H32" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>126</v>
+        <v>293</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="D33" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="E33" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="F33" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="H33" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>130</v>
+        <v>292</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="D34" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="E34" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="F34" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="H34" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>301</v>
+        <v>274</v>
       </c>
       <c r="B35">
         <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>300</v>
+        <v>273</v>
       </c>
       <c r="E35" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="H35" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="B36">
         <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="D36" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="E36" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="F36" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="H36" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="J36" s="1">
         <v>0.01</v>
@@ -2616,48 +2619,48 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B37">
         <v>24</v>
       </c>
       <c r="C37" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="D37" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="E37" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="F37" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="H37" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="B38">
         <v>16</v>
       </c>
       <c r="C38" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="D38" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="E38" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="F38" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="H38" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="J38" s="1">
         <v>0.01</v>
@@ -2665,7 +2668,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="B39">
         <v>23</v>
@@ -2674,21 +2677,21 @@
         <v>0</v>
       </c>
       <c r="D39" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="E39" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="F39" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="H39" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="B40">
         <v>51</v>
@@ -2697,16 +2700,16 @@
         <v>33</v>
       </c>
       <c r="D40" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="E40" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="F40" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="H40" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="J40">
         <v>0.1</v>
@@ -2714,25 +2717,25 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="B41">
         <v>18</v>
       </c>
       <c r="C41" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="D41" t="s">
+        <v>130</v>
+      </c>
+      <c r="E41" t="s">
+        <v>131</v>
+      </c>
+      <c r="F41" t="s">
+        <v>132</v>
+      </c>
+      <c r="H41" t="s">
         <v>143</v>
-      </c>
-      <c r="E41" t="s">
-        <v>144</v>
-      </c>
-      <c r="F41" t="s">
-        <v>145</v>
-      </c>
-      <c r="H41" t="s">
-        <v>156</v>
       </c>
       <c r="J41">
         <v>0.1</v>
@@ -2740,71 +2743,71 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="B42">
         <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="D42" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="E42" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="F42" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="H42" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="B43">
         <v>2</v>
       </c>
       <c r="C43" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="D43" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="E43" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="F43" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="H43" t="s">
-        <v>146</v>
+        <v>275</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>163</v>
+        <v>290</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="D44" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="E44" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="F44" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="H44" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="J44" s="1">
         <v>0.01</v>
@@ -2812,25 +2815,25 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="B45">
         <v>2</v>
       </c>
       <c r="C45" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="D45" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="E45" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="F45" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="H45" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="J45" s="1">
         <v>0.01</v>
@@ -2838,25 +2841,25 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="B46">
         <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="D46" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="E46" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="F46" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="H46" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="J46" s="1">
         <v>0.01</v>
@@ -2864,25 +2867,25 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>172</v>
+        <v>291</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="D47" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="E47" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="F47" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="H47" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="J47" s="1">
         <v>0.01</v>
@@ -2890,25 +2893,25 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="B48">
         <v>14</v>
       </c>
       <c r="C48" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="D48" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="E48" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="F48" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="H48" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="J48" s="1">
         <v>0.01</v>
@@ -2916,25 +2919,25 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="B49">
         <v>40</v>
       </c>
       <c r="C49" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="D49" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="E49" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="F49" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="H49" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="J49" s="1">
         <v>0.01</v>
@@ -2942,7 +2945,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="B50">
         <v>13</v>
@@ -2951,13 +2954,13 @@
         <v>58</v>
       </c>
       <c r="D50" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="E50" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="F50" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="J50" s="1">
         <v>0.01</v>
@@ -2965,7 +2968,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="B51">
         <v>8</v>
@@ -2974,16 +2977,16 @@
         <v>100</v>
       </c>
       <c r="D51" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="E51" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="F51" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="H51" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="J51" s="1">
         <v>0.01</v>
@@ -2991,25 +2994,25 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="B52">
         <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="D52" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="E52" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="F52" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="H52" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="J52" s="1">
         <v>0.01</v>
@@ -3017,25 +3020,25 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="B53">
         <v>6</v>
       </c>
       <c r="C53" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="D53" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="E53" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="F53" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="H53" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="J53" s="1">
         <v>0.01</v>
@@ -3043,25 +3046,25 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="B54">
         <v>6</v>
       </c>
       <c r="C54" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="D54" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="E54" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="F54" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="H54" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="J54" s="1">
         <v>0.01</v>
@@ -3069,25 +3072,25 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="B55">
         <v>6</v>
       </c>
       <c r="C55" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="D55" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="E55" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="F55" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="H55" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="J55" s="1">
         <v>0.01</v>
@@ -3095,25 +3098,25 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="B56">
         <v>6</v>
       </c>
       <c r="C56" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="D56" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="E56" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="F56" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="H56" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="J56" s="1">
         <v>0.01</v>
@@ -3121,25 +3124,25 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="B57">
         <v>6</v>
       </c>
       <c r="C57" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="D57" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="E57" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="F57" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="H57" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="J57" s="1">
         <v>0.01</v>
@@ -3147,25 +3150,25 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="B58">
         <v>12</v>
       </c>
       <c r="C58" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="D58" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="E58" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="F58" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="H58" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="J58" s="1">
         <v>0.01</v>
@@ -3173,30 +3176,30 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B59">
         <v>6</v>
       </c>
       <c r="C59" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="D59" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="E59" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="F59" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="H59" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="B60">
         <v>2</v>
@@ -3205,478 +3208,478 @@
         <v>49.9</v>
       </c>
       <c r="D60" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="E60" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="F60" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="H60" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="B61">
         <v>14</v>
       </c>
       <c r="C61" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="D61" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="E61" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="F61" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="H61" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="B62">
         <v>2</v>
       </c>
       <c r="C62" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="D62" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="E62" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="H62" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="B63">
         <v>4</v>
       </c>
       <c r="C63" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="D63" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="E63" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="H63" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>224</v>
+        <v>279</v>
       </c>
       <c r="B64">
         <v>2</v>
       </c>
       <c r="C64" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="D64" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="E64" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="F64" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="H64" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>229</v>
+        <v>278</v>
       </c>
       <c r="B65">
         <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="D65" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="E65" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="F65" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="H65" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>234</v>
+        <v>280</v>
       </c>
       <c r="B66">
         <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="D66" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="E66" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="F66" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="H66" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>240</v>
+        <v>281</v>
       </c>
       <c r="B67">
         <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="D67" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="E67" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="F67" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="H67" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>244</v>
+        <v>282</v>
       </c>
       <c r="B68">
         <v>1</v>
       </c>
       <c r="C68" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="D68" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="E68" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="F68" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="H68" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>249</v>
+        <v>283</v>
       </c>
       <c r="B69">
         <v>1</v>
       </c>
       <c r="C69" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="D69" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="E69" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="H69" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
       <c r="B70">
         <v>1</v>
       </c>
       <c r="C70" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="D70" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="E70" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="F70" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="H70" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>256</v>
+        <v>285</v>
       </c>
       <c r="B71">
         <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="D71" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="E71" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="F71" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="H71" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="B72">
         <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="D72" t="s">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="E72" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="F72" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="H72" t="s">
-        <v>264</v>
+        <v>240</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>265</v>
+        <v>287</v>
       </c>
       <c r="B73">
         <v>1</v>
       </c>
       <c r="C73" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="D73" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="E73" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="F73" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="H73" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="B74">
         <v>1</v>
       </c>
       <c r="C74" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="D74" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="E74" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="F74" t="s">
-        <v>272</v>
+        <v>246</v>
       </c>
       <c r="H74" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="B75">
         <v>1</v>
       </c>
       <c r="C75" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
       <c r="D75" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
       <c r="E75" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
       <c r="H75" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>277</v>
+        <v>250</v>
       </c>
       <c r="B76">
         <v>2</v>
       </c>
       <c r="C76" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="D76" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="E76" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
       <c r="F76" t="s">
-        <v>279</v>
+        <v>252</v>
       </c>
       <c r="H76" t="s">
-        <v>280</v>
+        <v>253</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="B77">
         <v>2</v>
       </c>
       <c r="C77" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="D77" t="s">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="E77" t="s">
-        <v>284</v>
+        <v>257</v>
       </c>
       <c r="F77" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="H77" t="s">
-        <v>283</v>
+        <v>256</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>286</v>
+        <v>259</v>
       </c>
       <c r="B78">
         <v>4</v>
       </c>
       <c r="C78" t="s">
-        <v>287</v>
+        <v>260</v>
       </c>
       <c r="D78" t="s">
-        <v>287</v>
+        <v>260</v>
       </c>
       <c r="E78" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="H78" t="s">
-        <v>287</v>
+        <v>260</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="B79">
         <v>4</v>
       </c>
       <c r="C79" t="s">
-        <v>290</v>
+        <v>263</v>
       </c>
       <c r="D79" t="s">
-        <v>290</v>
+        <v>263</v>
       </c>
       <c r="E79" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="F79" t="s">
-        <v>292</v>
+        <v>265</v>
       </c>
       <c r="H79" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="B80">
         <v>6</v>
       </c>
       <c r="C80" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="D80" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="E80" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="H80" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="B81">
         <v>6</v>
       </c>
       <c r="C81" t="s">
-        <v>297</v>
+        <v>270</v>
       </c>
       <c r="D81" t="s">
-        <v>297</v>
+        <v>270</v>
       </c>
       <c r="E81" t="s">
-        <v>298</v>
+        <v>271</v>
       </c>
       <c r="H81" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
